--- a/biology/Botanique/Polémoine_visqueuse/Polémoine_visqueuse.xlsx
+++ b/biology/Botanique/Polémoine_visqueuse/Polémoine_visqueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_visqueuse</t>
+          <t>Polémoine_visqueuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polemonium viscosum (Sky Pilot en anglais) est une espèce de plante à fleurs de la famille des Polemoniaceae et du genre Polemonium.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_visqueuse</t>
+          <t>Polémoine_visqueuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur est présente dans la partie occidentale du Canada et des États-Unis[2]. Elle pousse en particulier dans des zones de haute altitude dans de sites rocheux et secs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur est présente dans la partie occidentale du Canada et des États-Unis. Elle pousse en particulier dans des zones de haute altitude dans de sites rocheux et secs.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_visqueuse</t>
+          <t>Polémoine_visqueuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’une plante vivace pouvant atteindre 10 à 30 centimètres de haut. Ses fleurs sont mauves et mesurent entre 17 et 25 mm.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moine_visqueuse</t>
+          <t>Polémoine_visqueuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante peut être utilisée comme plante ornementale dans des jardins rocailleux.
 </t>
